--- a/README.xlsx
+++ b/README.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KakaRoot\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\subject\MachineLearning_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F06A59-3113-4448-A9B5-58AB0E693B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7A038-567C-4AB1-AF00-97F3106FDFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,12 +384,43 @@
   <si>
     <t>https://blog.csdn.net/u011535541/article/details/83379151</t>
   </si>
+  <si>
+    <t>集成学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdaBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack cui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bagging原理、随机森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relief、LVW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式选取、线性回归原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_43378396/article/details/90640595</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +555,27 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -554,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -595,6 +647,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -876,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1301,17 +1356,85 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B16:D16"/>
@@ -1330,8 +1453,9 @@
     <hyperlink ref="F24" r:id="rId5" xr:uid="{B60C0472-54F6-49E1-B75D-85AA44B649A4}"/>
     <hyperlink ref="F18" r:id="rId6" xr:uid="{F61E01B4-C7CC-4271-A743-FDBEFCA1F1A6}"/>
     <hyperlink ref="F26" r:id="rId7" xr:uid="{B2773565-4541-44A9-9DA6-ADD210F79EEB}"/>
+    <hyperlink ref="F32" r:id="rId8" xr:uid="{7D5061B0-8A82-4EDA-A7AD-1EA8FD498BA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/README.xlsx
+++ b/README.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\subject\MachineLearning_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7A038-567C-4AB1-AF00-97F3106FDFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDACEF91-4FAC-484A-BEE4-4C45934C8B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,11 +409,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嵌入式选取、线性回归原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://blog.csdn.net/weixin_43378396/article/details/90640595</t>
+  </si>
+  <si>
+    <t>嵌入式选取、逻辑（线性）回归原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -635,6 +635,12 @@
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,12 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -934,14 +934,14 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="5.875" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
@@ -964,11 +964,11 @@
       <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
@@ -1204,21 +1204,21 @@
       <c r="A16" s="21">
         <v>43876</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>43877</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
@@ -1276,11 +1276,11 @@
       <c r="A21" s="21">
         <v>43881</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
@@ -1304,21 +1304,21 @@
       <c r="A23" s="21">
         <v>43883</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>43884</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1414,20 +1414,20 @@
       <c r="A32" s="1">
         <v>43892</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/README.xlsx
+++ b/README.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\subject\MachineLearning_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDACEF91-4FAC-484A-BEE4-4C45934C8B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90EC119-B04B-4CC2-BFC3-17234AF2CB81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="690" windowWidth="15915" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +413,61 @@
   </si>
   <si>
     <t>嵌入式选取、逻辑（线性）回归原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征选择、线性回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、正则化</t>
+    </r>
+  </si>
+  <si>
+    <t>近端梯度下降法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/265426774/answer/374340519</t>
+  </si>
+  <si>
+    <t>特征选择</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_35033983/article/details/103710586?ops_request_misc=%7B%22request%5Fid%22%3A%22158328725019725219923581%22%2C%22scm%22%3A%2220140713.130056874..%22%7D&amp;request_id=158328725019725219923581&amp;biz_id=0&amp;utm_source=distribute.pc_search_result.none-task</t>
+  </si>
+  <si>
+    <t>matlab代码（未测试）--&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Chaolei3/article/details/81320940</t>
+  </si>
+  <si>
+    <t>理解上有些困难</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1428,6 +1483,52 @@
       </c>
       <c r="F32" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1454,8 +1555,11 @@
     <hyperlink ref="F18" r:id="rId6" xr:uid="{F61E01B4-C7CC-4271-A743-FDBEFCA1F1A6}"/>
     <hyperlink ref="F26" r:id="rId7" xr:uid="{B2773565-4541-44A9-9DA6-ADD210F79EEB}"/>
     <hyperlink ref="F32" r:id="rId8" xr:uid="{7D5061B0-8A82-4EDA-A7AD-1EA8FD498BA9}"/>
+    <hyperlink ref="F33" r:id="rId9" xr:uid="{B8D027DA-C141-4128-8C6A-E1D483EC7EDA}"/>
+    <hyperlink ref="F34" r:id="rId10" display="https://blog.csdn.net/qq_35033983/article/details/103710586?ops_request_misc=%7B%22request%5Fid%22%3A%22158328725019725219923581%22%2C%22scm%22%3A%2220140713.130056874..%22%7D&amp;request_id=158328725019725219923581&amp;biz_id=0&amp;utm_source=distribute.pc_search_result.none-task" xr:uid="{55CB4385-268F-4C1C-A3DA-DC2908FA77FE}"/>
+    <hyperlink ref="H34" r:id="rId11" xr:uid="{76F00EFC-C491-46A6-B3B1-7133C4CD52DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>